--- a/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
+++ b/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bw_so\Documents\Git\benwong.netlify.com\content\post\2022-01-21-osce-resource-list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C13F71-7356-4499-9E32-FC4ADB34E8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470C7B-6D96-46F1-9C3D-34E91C63EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D98DA1C8-FB41-4D9E-B1B4-031045A8CB99}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Archived Link</t>
-  </si>
-  <si>
     <t>Date Added</t>
   </si>
   <si>
@@ -91,6 +88,45 @@
   </si>
   <si>
     <t>Useful but new website so not much content yet.</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20220122114820/https://osce-stations.blogspot.com/</t>
+  </si>
+  <si>
+    <t>Date Archived</t>
+  </si>
+  <si>
+    <t>Archived?</t>
+  </si>
+  <si>
+    <t>https://meded.ucsd.edu/clinicalmed/introduction.html</t>
+  </si>
+  <si>
+    <t>UCSD Practical Guide to Clinical Medicine</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>An essential(!) resource</t>
+  </si>
+  <si>
+    <t>OSCE: The Ultimate Prep Guide in 2022</t>
+  </si>
+  <si>
+    <t>BeMo Academic Consulting</t>
+  </si>
+  <si>
+    <t>https://bemoacademicconsulting.com/blog/osce</t>
+  </si>
+  <si>
+    <t>https://oxfordmedicaleducation.com/clinical-examinations/</t>
+  </si>
+  <si>
+    <t>OME Clinical Examinations</t>
+  </si>
+  <si>
+    <t>Oxford Medical Education</t>
   </si>
 </sst>
 </file>
@@ -443,102 +479,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556EE4E5-B627-4D3D-B0F4-6253FA59E8F6}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
         <v>44582</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
         <v>44582</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44582</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44583</v>
       </c>
     </row>
   </sheetData>

--- a/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
+++ b/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bw_so\Documents\Git\benwong.netlify.com\content\post\2022-01-21-osce-resource-list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0470C7B-6D96-46F1-9C3D-34E91C63EEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077E95A-9E69-4E3B-9074-8AEBA90AD85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D98DA1C8-FB41-4D9E-B1B4-031045A8CB99}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -127,6 +127,63 @@
   </si>
   <si>
     <t>Oxford Medical Education</t>
+  </si>
+  <si>
+    <t>https://ddxof.com/</t>
+  </si>
+  <si>
+    <t>http://jacobiem.org/wp-content/uploads/2013/07/Differential-Diagnosis-Checklist.doc</t>
+  </si>
+  <si>
+    <t>Link points to a downloadable Word document</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qKrLPY_8Cyk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iEbonwYPNVk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=n48zY7GLqc0</t>
+  </si>
+  <si>
+    <t>How to Create a Differential Diagnosis Part 1</t>
+  </si>
+  <si>
+    <t>How to Create a Differential Diagnosis Part 3</t>
+  </si>
+  <si>
+    <t>How to Create a Differential Diagnosis Part 2</t>
+  </si>
+  <si>
+    <t>First Aid for Step 2 CS</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/First-Aid-USMLE-Step-Tenth-dp-126044029X/dp/126044029X/ref=dp_ob_title_bk</t>
+  </si>
+  <si>
+    <t>https://modernmeded.com/elements-of-a-good-differential-diagnosis-for-any-condition/</t>
+  </si>
+  <si>
+    <t>Techniques to Improve Your Differential Diagnosis</t>
+  </si>
+  <si>
+    <t>ModernMedEd</t>
+  </si>
+  <si>
+    <t>Differential Diagnosis Checklist</t>
+  </si>
+  <si>
+    <t>Jacobi EM Residency Program</t>
+  </si>
+  <si>
+    <t>A library of clinical decision support algorithms for emergency physicians</t>
+  </si>
+  <si>
+    <t>Tom Fadial</t>
+  </si>
+  <si>
+    <t>ddxof App</t>
   </si>
 </sst>
 </file>
@@ -479,16 +536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556EE4E5-B627-4D3D-B0F4-6253FA59E8F6}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -632,6 +689,98 @@
         <v>44583</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
+++ b/content/post/2022-01-21-osce-resource-list/data/osce-resource-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bw_so\Documents\Git\benwong.netlify.com\content\post\2022-01-21-osce-resource-list\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8077E95A-9E69-4E3B-9074-8AEBA90AD85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEC58E8-FC95-4B15-8057-148272E1D4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D98DA1C8-FB41-4D9E-B1B4-031045A8CB99}"/>
+    <workbookView xWindow="15" yWindow="-60" windowWidth="28770" windowHeight="15660" xr2:uid="{D98DA1C8-FB41-4D9E-B1B4-031045A8CB99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
